--- a/states/Centronord (Italia).xlsx
+++ b/states/Centronord (Italia).xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>timestamp</t>
   </si>
@@ -515,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,29 +657,32 @@
       <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:46">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2">
         <v>3580000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21300</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -684,20 +690,20 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>817000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>614328</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>387.66</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>200000</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
@@ -711,70 +717,207 @@
         <v>0</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>163000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>21838</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4.26</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1980000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>217664</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>164.01</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>621000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>148928</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>59.64</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
-      <c r="AG2">
+      <c r="AF2">
         <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>2430000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>663374</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5410.2</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>16000</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
       <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AR2" t="s">
-        <v>46</v>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>98092</v>
+      </c>
+      <c r="AR2">
+        <v>1141.68</v>
       </c>
       <c r="AS2" t="s">
         <v>47</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>3580000</v>
+      </c>
+      <c r="H3">
+        <v>21300</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>817000</v>
+      </c>
+      <c r="M3">
+        <v>614328</v>
+      </c>
+      <c r="N3">
+        <v>387.66</v>
+      </c>
+      <c r="O3">
+        <v>200000</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>163000</v>
+      </c>
+      <c r="V3">
+        <v>21838</v>
+      </c>
+      <c r="W3">
+        <v>4.26</v>
+      </c>
+      <c r="X3">
+        <v>1980000</v>
+      </c>
+      <c r="Y3">
+        <v>217664</v>
+      </c>
+      <c r="Z3">
+        <v>164.01</v>
+      </c>
+      <c r="AA3">
+        <v>621000</v>
+      </c>
+      <c r="AB3">
+        <v>148928</v>
+      </c>
+      <c r="AC3">
+        <v>59.64</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>2430000</v>
+      </c>
+      <c r="AK3">
+        <v>663374</v>
+      </c>
+      <c r="AL3">
+        <v>5410.2</v>
+      </c>
+      <c r="AM3">
+        <v>16000</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>98092</v>
+      </c>
+      <c r="AR3">
+        <v>1141.68</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
